--- a/ECON 611 Term Project/Dataset.xlsx
+++ b/ECON 611 Term Project/Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akoto\OneDrive\Documents\GitHub\ECON-611-Projects\ECON 611 Term Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7912a509d20837c2/Documents/GitHub/ECON-611-Projects/ECON 611 Term Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D5E9D1-557E-40C7-9336-4CE0968BFAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{A5D5E9D1-557E-40C7-9336-4CE0968BFAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B780CB40-FE2F-4839-A7CF-E2DF05AAB3A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{48484334-67F8-4DE4-80A9-BC0E21A88792}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="9">
   <si>
     <t>GDP (current US$)</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Employment to population ratio, 15+, total (%)</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -94,11 +106,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -413,937 +429,3457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C3D6D4-B721-4D67-85B7-8A62DABD4440}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
         <v>1960</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="3">
         <v>543300000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
         <v>1961</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="3">
         <v>563300000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
         <v>1962</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="3">
         <v>605100000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
         <v>1963</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="3">
         <v>638600000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
         <v>1964</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="3">
         <v>685800000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
         <v>1965</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="3">
         <v>743700000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
         <v>1966</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="3">
         <v>815000000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
         <v>1967</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="3">
         <v>861700000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
         <v>1968</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="3">
         <v>942500000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
         <v>1969</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="3">
         <v>1019900000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
         <v>1970</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="3">
         <v>1073303000000</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>-610000000</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="3">
         <v>5270000000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
         <v>1971</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="3">
         <v>1164850000000</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>-5040000000</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="3">
         <v>4850000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
         <v>1972</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="3">
         <v>1279110000000</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>-10120000000</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="3">
         <v>6060000000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
         <v>1973</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="3">
         <v>1425376000000</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>-1140000000</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="3">
         <v>7410000000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
         <v>1974</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="3">
         <v>1545243000000</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>-6400000000</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="3">
         <v>1620000000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
         <v>1975</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="3">
         <v>1684904000000</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>9970000000</v>
       </c>
-      <c r="E17">
+      <c r="F17" s="3">
         <v>11420000000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
         <v>1976</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="3">
         <v>1873412000000</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <v>-6820000000</v>
       </c>
-      <c r="E18">
+      <c r="F18" s="3">
         <v>8410000000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
         <v>1977</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="3">
         <v>2081826000000</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <v>-27640000000</v>
       </c>
-      <c r="E19">
+      <c r="F19" s="3">
         <v>8360000000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
         <v>1978</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="3">
         <v>2351599000000</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <v>-30167000000</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="3">
         <v>8870000000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
         <v>1979</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="3">
         <v>2627333000000</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>-24966700000</v>
       </c>
-      <c r="E21">
+      <c r="F21" s="3">
         <v>16670000000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
         <v>1980</v>
       </c>
-      <c r="B22">
+      <c r="C22" s="3">
         <v>2857307000000</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <v>-18953000000</v>
       </c>
-      <c r="E22">
+      <c r="F22" s="3">
         <v>2300000000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3">
         <v>1981</v>
       </c>
-      <c r="B23">
+      <c r="C23" s="3">
         <v>3207041000000</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <v>-15680000000</v>
       </c>
-      <c r="E23">
+      <c r="F23" s="3">
         <v>-15570000000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3">
         <v>1982</v>
       </c>
-      <c r="B24">
+      <c r="C24" s="3">
         <v>3343789000000</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>-23537000000</v>
       </c>
-      <c r="E24">
+      <c r="F24" s="3">
         <v>-13456000000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
         <v>1983</v>
       </c>
-      <c r="B25">
+      <c r="C25" s="3">
         <v>3634038000000</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>-57135000000</v>
       </c>
-      <c r="E25">
+      <c r="F25" s="3">
         <v>-2730000000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3">
         <v>1984</v>
       </c>
-      <c r="B26">
+      <c r="C26" s="3">
         <v>4037613000000</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
         <v>-108277000000</v>
       </c>
-      <c r="E26">
+      <c r="F26" s="3">
         <v>-12410000000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
         <v>1985</v>
       </c>
-      <c r="B27">
+      <c r="C27" s="3">
         <v>4338979000000</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>-121102000000</v>
       </c>
-      <c r="E27">
+      <c r="F27" s="3">
         <v>-5950000000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
         <v>1986</v>
       </c>
-      <c r="B28">
+      <c r="C28" s="3">
         <v>4579631000000</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
         <v>-138527000000</v>
       </c>
-      <c r="E28">
+      <c r="F28" s="3">
         <v>-11422000000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
         <v>1987</v>
       </c>
-      <c r="B29">
+      <c r="C29" s="3">
         <v>4855215000000</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
         <v>-151675000000</v>
       </c>
-      <c r="E29">
+      <c r="F29" s="3">
         <v>-23438000000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3">
         <v>1988</v>
       </c>
-      <c r="B30">
+      <c r="C30" s="3">
         <v>5236438000000</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
         <v>-114660000000</v>
       </c>
-      <c r="E30">
+      <c r="F30" s="3">
         <v>-35209000000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
         <v>1989</v>
       </c>
-      <c r="B31">
+      <c r="C31" s="3">
         <v>5641580000000</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
         <v>-93126000000</v>
       </c>
-      <c r="E31">
+      <c r="F31" s="3">
         <v>-24800000000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
         <v>1990</v>
       </c>
-      <c r="B32">
+      <c r="C32" s="3">
         <v>5963144000000</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
         <v>-80852000000</v>
       </c>
-      <c r="E32">
+      <c r="F32" s="3">
         <v>-11290000000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3">
         <v>1991</v>
       </c>
-      <c r="B33">
+      <c r="C33" s="3">
         <v>6158129000000</v>
       </c>
-      <c r="C33">
+      <c r="D33" s="3">
         <v>60.720001220703097</v>
       </c>
-      <c r="D33">
+      <c r="E33" s="3">
         <v>-31180000000</v>
       </c>
-      <c r="E33">
+      <c r="F33" s="3">
         <v>14720000000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
         <v>1992</v>
       </c>
-      <c r="B34">
+      <c r="C34" s="3">
         <v>6520327000000</v>
       </c>
-      <c r="C34">
+      <c r="D34" s="3">
         <v>60.544998168945298</v>
       </c>
-      <c r="D34">
+      <c r="E34" s="3">
         <v>-39207100000</v>
       </c>
-      <c r="E34">
+      <c r="F34" s="3">
         <v>28460000000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3">
         <v>1993</v>
       </c>
-      <c r="B35">
+      <c r="C35" s="3">
         <v>6858559000000</v>
       </c>
-      <c r="C35">
+      <c r="D35" s="3">
         <v>60.811000823974602</v>
       </c>
-      <c r="D35">
+      <c r="E35" s="3">
         <v>-70311000000</v>
       </c>
-      <c r="E35">
+      <c r="F35" s="3">
         <v>32570000000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3">
         <v>1994</v>
       </c>
-      <c r="B36">
+      <c r="C36" s="3">
         <v>7287236000000</v>
       </c>
-      <c r="C36">
+      <c r="D36" s="3">
         <v>61.639999389648402</v>
       </c>
-      <c r="D36">
+      <c r="E36" s="3">
         <v>-98511000000</v>
       </c>
-      <c r="E36">
+      <c r="F36" s="3">
         <v>34050000000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
         <v>1995</v>
       </c>
-      <c r="B37">
+      <c r="C37" s="3">
         <v>7639749000000</v>
       </c>
-      <c r="C37">
+      <c r="D37" s="3">
         <v>62.019001007080099</v>
       </c>
-      <c r="D37">
+      <c r="E37" s="3">
         <v>-96387000000</v>
       </c>
-      <c r="E37">
+      <c r="F37" s="3">
         <v>40980000000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
         <v>1996</v>
       </c>
-      <c r="B38">
+      <c r="C38" s="3">
         <v>8073122000000</v>
       </c>
-      <c r="C38">
+      <c r="D38" s="3">
         <v>62.292999267578097</v>
       </c>
-      <c r="D38">
+      <c r="E38" s="3">
         <v>-104035000000</v>
       </c>
-      <c r="E38">
+      <c r="F38" s="3">
         <v>5360000000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
         <v>1997</v>
       </c>
-      <c r="B39">
+      <c r="C39" s="3">
         <v>8577554457000</v>
       </c>
-      <c r="C39">
+      <c r="D39" s="3">
         <v>62.884998321533203</v>
       </c>
-      <c r="D39">
+      <c r="E39" s="3">
         <v>-108288000000</v>
       </c>
-      <c r="E39">
+      <c r="F39" s="3">
         <v>-770000000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
         <v>1998</v>
       </c>
-      <c r="B40">
+      <c r="C40" s="3">
         <v>9062818202000</v>
       </c>
-      <c r="C40">
+      <c r="D40" s="3">
         <v>63.1049995422363</v>
       </c>
-      <c r="D40">
+      <c r="E40" s="3">
         <v>-166130000000</v>
       </c>
-      <c r="E40">
+      <c r="F40" s="3">
         <v>-36390000000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3">
         <v>1999</v>
       </c>
-      <c r="B41">
+      <c r="C41" s="3">
         <v>9631174489000</v>
       </c>
-      <c r="C41">
+      <c r="D41" s="3">
         <v>63.311000823974602</v>
       </c>
-      <c r="D41">
+      <c r="E41" s="3">
         <v>-255813000000</v>
       </c>
-      <c r="E41">
+      <c r="F41" s="3">
         <v>-64964000000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3">
         <v>2000</v>
       </c>
-      <c r="B42">
+      <c r="C42" s="3">
         <v>10250947997000</v>
       </c>
-      <c r="C42">
+      <c r="D42" s="3">
         <v>63.455001831054702</v>
       </c>
-      <c r="D42">
+      <c r="E42" s="3">
         <v>-369689000000</v>
       </c>
-      <c r="E42">
+      <c r="F42" s="3">
         <v>-162755000000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3">
         <v>2001</v>
       </c>
-      <c r="B43">
+      <c r="C43" s="3">
         <v>10581929774000</v>
       </c>
-      <c r="C43">
+      <c r="D43" s="3">
         <v>62.7239990234375</v>
       </c>
-      <c r="D43">
+      <c r="E43" s="3">
         <v>-360373000000</v>
       </c>
-      <c r="E43">
+      <c r="F43" s="3">
         <v>-26455000000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
         <v>2002</v>
       </c>
-      <c r="B44">
+      <c r="C44" s="3">
         <v>10929112955000</v>
       </c>
-      <c r="C44">
+      <c r="D44" s="3">
         <v>61.801998138427699</v>
       </c>
-      <c r="D44">
+      <c r="E44" s="3">
         <v>-420666000000</v>
       </c>
-      <c r="E44">
+      <c r="F44" s="3">
         <v>67930000000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3">
         <v>2003</v>
       </c>
-      <c r="B45">
+      <c r="C45" s="3">
         <v>11456442041000</v>
       </c>
-      <c r="C45">
+      <c r="D45" s="3">
         <v>61.3289985656738</v>
       </c>
-      <c r="D45">
+      <c r="E45" s="3">
         <v>-496251000000</v>
       </c>
-      <c r="E45">
+      <c r="F45" s="3">
         <v>78112000000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3">
         <v>2004</v>
       </c>
-      <c r="B46">
+      <c r="C46" s="3">
         <v>12217193198000</v>
       </c>
-      <c r="C46">
+      <c r="D46" s="3">
         <v>61.380001068115199</v>
       </c>
-      <c r="D46">
+      <c r="E46" s="3">
         <v>-610833000000</v>
       </c>
-      <c r="E46">
+      <c r="F46" s="3">
         <v>160363000000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
         <v>2005</v>
       </c>
-      <c r="B47">
+      <c r="C47" s="3">
         <v>13039199193000</v>
       </c>
-      <c r="C47">
+      <c r="D47" s="3">
         <v>61.698001861572301</v>
       </c>
-      <c r="D47">
+      <c r="E47" s="3">
         <v>-716537000000</v>
       </c>
-      <c r="E47">
+      <c r="F47" s="3">
         <v>-89753000000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3">
         <v>2006</v>
       </c>
-      <c r="B48">
+      <c r="C48" s="3">
         <v>13815586948000</v>
       </c>
-      <c r="C48">
+      <c r="D48" s="3">
         <v>62.1119995117188</v>
       </c>
-      <c r="D48">
+      <c r="E48" s="3">
         <v>-763533000000</v>
       </c>
-      <c r="E48">
+      <c r="F48" s="3">
         <v>-14662000000</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3">
         <v>2007</v>
       </c>
-      <c r="B49">
+      <c r="C49" s="3">
         <v>14474226905000</v>
       </c>
-      <c r="C49">
+      <c r="D49" s="3">
         <v>61.971000671386697</v>
       </c>
-      <c r="D49">
+      <c r="E49" s="3">
         <v>-711000000000</v>
       </c>
-      <c r="E49">
+      <c r="F49" s="3">
         <v>177277000000</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3">
         <v>2008</v>
       </c>
-      <c r="B50">
+      <c r="C50" s="3">
         <v>14769857911000</v>
       </c>
-      <c r="C50">
+      <c r="D50" s="3">
         <v>61.1710014343262</v>
       </c>
-      <c r="D50">
+      <c r="E50" s="3">
         <v>-712352000000</v>
       </c>
-      <c r="E50">
+      <c r="F50" s="3">
         <v>2491000000</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3">
         <v>2009</v>
       </c>
-      <c r="B51">
+      <c r="C51" s="3">
         <v>14478064934000</v>
       </c>
-      <c r="C51">
+      <c r="D51" s="3">
         <v>58.347000122070298</v>
       </c>
-      <c r="D51">
+      <c r="E51" s="3">
         <v>-394779000000</v>
       </c>
-      <c r="E51">
+      <c r="F51" s="3">
         <v>151514000000</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3">
         <v>2010</v>
       </c>
-      <c r="B52">
+      <c r="C52" s="3">
         <v>15048964444000</v>
       </c>
-      <c r="C52">
+      <c r="D52" s="3">
         <v>57.521999359130902</v>
       </c>
-      <c r="D52">
+      <c r="E52" s="3">
         <v>-503078000000</v>
       </c>
-      <c r="E52">
+      <c r="F52" s="3">
         <v>85789000000</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3">
         <v>2011</v>
       </c>
-      <c r="B53">
+      <c r="C53" s="3">
         <v>15599728123000</v>
       </c>
-      <c r="C53">
+      <c r="D53" s="3">
         <v>57.424999237060497</v>
       </c>
-      <c r="D53">
+      <c r="E53" s="3">
         <v>-554517000000</v>
       </c>
-      <c r="E53">
+      <c r="F53" s="3">
         <v>173119000000</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3">
         <v>2012</v>
       </c>
-      <c r="B54">
+      <c r="C54" s="3">
         <v>16253972230000</v>
       </c>
-      <c r="C54">
+      <c r="D54" s="3">
         <v>57.659000396728501</v>
       </c>
-      <c r="D54">
+      <c r="E54" s="3">
         <v>-525907000000</v>
       </c>
-      <c r="E54">
+      <c r="F54" s="3">
         <v>126895000000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3">
         <v>2013</v>
       </c>
-      <c r="B55">
+      <c r="C55" s="3">
         <v>16843190993000</v>
       </c>
-      <c r="C55">
+      <c r="D55" s="3">
         <v>57.699001312255902</v>
       </c>
-      <c r="D55">
+      <c r="E55" s="3">
         <v>-446857000000</v>
       </c>
-      <c r="E55">
+      <c r="F55" s="3">
         <v>104665000000</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3">
         <v>2014</v>
       </c>
-      <c r="B56">
+      <c r="C56" s="3">
         <v>17550680174000</v>
       </c>
-      <c r="C56">
+      <c r="D56" s="3">
         <v>58.116001129150398</v>
       </c>
-      <c r="D56">
+      <c r="E56" s="3">
         <v>-483951000000</v>
       </c>
-      <c r="E56">
+      <c r="F56" s="3">
         <v>135673000000</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="3">
         <v>2015</v>
       </c>
-      <c r="B57">
+      <c r="C57" s="3">
         <v>18206020741000</v>
       </c>
-      <c r="C57">
+      <c r="D57" s="3">
         <v>58.464000701904297</v>
       </c>
-      <c r="D57">
+      <c r="E57" s="3">
         <v>-490773000000</v>
       </c>
-      <c r="E57">
+      <c r="F57" s="3">
         <v>-209363000000</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="3">
         <v>2016</v>
       </c>
-      <c r="B58">
+      <c r="C58" s="3">
         <v>18695110842000</v>
       </c>
-      <c r="C58">
+      <c r="D58" s="3">
         <v>58.847999572753899</v>
       </c>
-      <c r="D58">
+      <c r="E58" s="3">
         <v>-479461000000</v>
       </c>
-      <c r="E58">
+      <c r="F58" s="3">
         <v>-174573000000</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="3">
         <v>2017</v>
       </c>
-      <c r="B59">
+      <c r="C59" s="3">
         <v>19477336549000</v>
       </c>
-      <c r="C59">
+      <c r="D59" s="3">
         <v>59.2369995117188</v>
       </c>
-      <c r="D59">
+      <c r="E59" s="3">
         <v>-510339000000</v>
       </c>
-      <c r="E59">
+      <c r="F59" s="3">
         <v>28590000000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3">
         <v>2018</v>
       </c>
-      <c r="B60">
+      <c r="C60" s="3">
         <v>20533057312000</v>
       </c>
-      <c r="C60">
+      <c r="D60" s="3">
         <v>59.548999786377003</v>
       </c>
-      <c r="D60">
+      <c r="E60" s="3">
         <v>-578600000000</v>
       </c>
-      <c r="E60">
+      <c r="F60" s="3">
         <v>-345435000000</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="3">
         <v>2019</v>
       </c>
-      <c r="B61">
+      <c r="C61" s="3">
         <v>21380976119000</v>
       </c>
-      <c r="C61">
+      <c r="D61" s="3">
         <v>59.923000335693402</v>
       </c>
-      <c r="D61">
+      <c r="E61" s="3">
         <v>-559675000000</v>
       </c>
-      <c r="E61">
+      <c r="F61" s="3">
         <v>-209067000000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="3">
         <v>2020</v>
       </c>
-      <c r="B62">
+      <c r="C62" s="3">
         <v>21060473613000</v>
       </c>
-      <c r="C62">
+      <c r="D62" s="3">
         <v>55.979000091552699</v>
       </c>
-      <c r="D62">
+      <c r="E62" s="3">
         <v>-653990000000</v>
       </c>
-      <c r="E62">
+      <c r="F62" s="3">
         <v>122885000000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="3">
         <v>2021</v>
       </c>
-      <c r="B63">
+      <c r="C63" s="3">
         <v>23315080560000</v>
       </c>
-      <c r="C63">
+      <c r="D63" s="3">
         <v>57.4140014648438</v>
       </c>
-      <c r="D63">
+      <c r="E63" s="3">
         <v>-845050000000</v>
       </c>
-      <c r="E63">
+      <c r="F63" s="3">
         <v>-26574000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1960</v>
+      </c>
+      <c r="C64" s="3">
+        <v>40461721692.646797</v>
+      </c>
+      <c r="E64" s="3">
+        <v>-506965097.11961401</v>
+      </c>
+      <c r="F64" s="3">
+        <v>-640621218.74353099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C65" s="3">
+        <v>40934952063.9468</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3">
+        <v>-212120980.730524</v>
+      </c>
+      <c r="F65" s="3">
+        <v>-639517888.28310394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1962</v>
+      </c>
+      <c r="C66" s="3">
+        <v>42227447631.915901</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3">
+        <v>-95384130.624447301</v>
+      </c>
+      <c r="F66" s="3">
+        <v>-645713817.34565902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1963</v>
+      </c>
+      <c r="C67" s="3">
+        <v>45029988561.212402</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3">
+        <v>309278759.85860598</v>
+      </c>
+      <c r="F67" s="3">
+        <v>-466340464.13604599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1964</v>
+      </c>
+      <c r="C68" s="3">
+        <v>49377522896.703003</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
+        <v>563628154.48224902</v>
+      </c>
+      <c r="F68" s="3">
+        <v>-318267102.72230703</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C69" s="3">
+        <v>54515179580.714798</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3">
+        <v>-72914365.291160807</v>
+      </c>
+      <c r="F69" s="3">
+        <v>-1011075309.5949</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1966</v>
+      </c>
+      <c r="C70" s="3">
+        <v>61088384036.651497</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3">
+        <v>14746027.0333557</v>
+      </c>
+      <c r="F70" s="3">
+        <v>-1207977810.9320199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1967</v>
+      </c>
+      <c r="C71" s="3">
+        <v>65668655501.125397</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
+        <v>659237891.66852796</v>
+      </c>
+      <c r="F71" s="3">
+        <v>-1211663928.64768</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1968</v>
+      </c>
+      <c r="C72" s="3">
+        <v>71829810519.895493</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
+        <v>863477545.35136795</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1012517432.61362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1969</v>
+      </c>
+      <c r="C73" s="3">
+        <v>79148411661.690201</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3">
+        <v>91577097.885008305</v>
+      </c>
+      <c r="F73" s="3">
+        <v>-1199987249.5516901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1970</v>
+      </c>
+      <c r="C74" s="3">
+        <v>87896095320.126297</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3">
+        <v>2225305803.4578199</v>
+      </c>
+      <c r="F74" s="3">
+        <v>-896964280.77605104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1971</v>
+      </c>
+      <c r="C75" s="3">
+        <v>99271961774.608795</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
+        <v>1599649051.6828201</v>
+      </c>
+      <c r="F75" s="3">
+        <v>-1815306869.41381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1972</v>
+      </c>
+      <c r="C76" s="3">
+        <v>113082820486.918</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3">
+        <v>998715623.64144695</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2030697593.7335701</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1973</v>
+      </c>
+      <c r="C77" s="3">
+        <v>131321858814.119</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3">
+        <v>1798485347.0765901</v>
+      </c>
+      <c r="F77" s="3">
+        <v>-2018654189.84482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1974</v>
+      </c>
+      <c r="C78" s="3">
+        <v>160408697341.513</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3">
+        <v>188806815.45684201</v>
+      </c>
+      <c r="F78" s="3">
+        <v>-2366551996.7687001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C79" s="3">
+        <v>173834029689.34299</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3">
+        <v>-3075889125.9787402</v>
+      </c>
+      <c r="F79" s="3">
+        <v>-2136728996.4899001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C80" s="3">
+        <v>206575564908.72198</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3">
+        <v>-1515997270.58042</v>
+      </c>
+      <c r="F80" s="3">
+        <v>-1448131764.9042699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C81" s="3">
+        <v>211612157028.67899</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3">
+        <v>-510403180.723818</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1740950704.5421801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C82" s="3">
+        <v>218632867537.47699</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3">
+        <v>666682553.67712605</v>
+      </c>
+      <c r="F82" s="3">
+        <v>-1462953096.1818399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C83" s="3">
+        <v>243072102612.259</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3">
+        <v>1184242918.34059</v>
+      </c>
+      <c r="F83" s="3">
+        <v>-1479180378.0873001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C84" s="3">
+        <v>273853826548.06699</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3">
+        <v>4717395080.8299999</v>
+      </c>
+      <c r="F84" s="3">
+        <v>-1719851090.1100399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C85" s="3">
+        <v>306214863624.98999</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3">
+        <v>2361388870.09483</v>
+      </c>
+      <c r="F85" s="3">
+        <v>4881869417.3363199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C86" s="3">
+        <v>313506525087.13599</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3">
+        <v>12130845692.391001</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2281061697.7687802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C87" s="3">
+        <v>340547711781.88898</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3">
+        <v>11082294016.2113</v>
+      </c>
+      <c r="F87" s="3">
+        <v>629011721.26373696</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C88" s="3">
+        <v>355372558103.62097</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3">
+        <v>12377075316.1164</v>
+      </c>
+      <c r="F88" s="3">
+        <v>-1090877860.1639199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C89" s="3">
+        <v>364756499450.75098</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3">
+        <v>8477603565.8765202</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2507671552.8340602</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C90" s="3">
+        <v>377437927311.98297</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3">
+        <v>3697836184.1781402</v>
+      </c>
+      <c r="F90" s="3">
+        <v>655376615.26596403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C91" s="3">
+        <v>431316742081.448</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3">
+        <v>5199682303.1348305</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-994078844.82189202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C92" s="3">
+        <v>507354351182.25403</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3">
+        <v>4077707643.07547</v>
+      </c>
+      <c r="F92" s="3">
+        <v>149516835.75042301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C93" s="3">
+        <v>565055743243.24304</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3">
+        <v>363564038.84544802</v>
+      </c>
+      <c r="F93" s="3">
+        <v>-756426909.08267605</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C94" s="3">
+        <v>593929550908.46802</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3">
+        <v>1115963784.2402501</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-2351322579.6047502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C95" s="3">
+        <v>610328183643.18799</v>
+      </c>
+      <c r="D95" s="3">
+        <v>59.708999633789098</v>
+      </c>
+      <c r="E95" s="3">
+        <v>-3204750443.16362</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2962324151.8857098</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C96" s="3">
+        <v>592387689252.91602</v>
+      </c>
+      <c r="D96" s="3">
+        <v>58.341999053955099</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2261089319.6694498</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-1229978110.06882</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C97" s="3">
+        <v>577170761956.43799</v>
+      </c>
+      <c r="D97" s="3">
+        <v>57.903999328613303</v>
+      </c>
+      <c r="E97" s="3">
+        <v>63206950.533126801</v>
+      </c>
+      <c r="F97" s="3">
+        <v>962554678.56287801</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C98" s="3">
+        <v>578139279437.60999</v>
+      </c>
+      <c r="D98" s="3">
+        <v>58.382999420166001</v>
+      </c>
+      <c r="E98" s="3">
+        <v>6647801661.6728201</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1079642881.10374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C99" s="3">
+        <v>604031623433.401</v>
+      </c>
+      <c r="D99" s="3">
+        <v>58.668998718261697</v>
+      </c>
+      <c r="E99" s="3">
+        <v>18904083589.169498</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2170895576.0524402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C100" s="3">
+        <v>628546387972.13098</v>
+      </c>
+      <c r="D100" s="3">
+        <v>58.449001312255902</v>
+      </c>
+      <c r="E100" s="3">
+        <v>24629288042.450901</v>
+      </c>
+      <c r="F100" s="3">
+        <v>3471751714.6939101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C101" s="3">
+        <v>654986999855.55396</v>
+      </c>
+      <c r="D101" s="3">
+        <v>58.966999053955099</v>
+      </c>
+      <c r="E101" s="3">
+        <v>12429974698.068001</v>
+      </c>
+      <c r="F101" s="3">
+        <v>11546289244.787901</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C102" s="3">
+        <v>634000000000</v>
+      </c>
+      <c r="D102" s="3">
+        <v>59.7369995117188</v>
+      </c>
+      <c r="E102" s="3">
+        <v>12048309635.264601</v>
+      </c>
+      <c r="F102" s="3">
+        <v>11369485481.8881</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C103" s="3">
+        <v>678412196271.11804</v>
+      </c>
+      <c r="D103" s="3">
+        <v>60.562999725341797</v>
+      </c>
+      <c r="E103" s="3">
+        <v>24096639864.594299</v>
+      </c>
+      <c r="F103" s="3">
+        <v>-7526468527.1575003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C104" s="3">
+        <v>744773415931.58704</v>
+      </c>
+      <c r="D104" s="3">
+        <v>61.269001007080099</v>
+      </c>
+      <c r="E104" s="3">
+        <v>41604373750.772301</v>
+      </c>
+      <c r="F104" s="3">
+        <v>-21653038993.626499</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C105" s="3">
+        <v>738981792355.37195</v>
+      </c>
+      <c r="D105" s="3">
+        <v>61.1510009765625</v>
+      </c>
+      <c r="E105" s="3">
+        <v>41819090368.647301</v>
+      </c>
+      <c r="F105" s="3">
+        <v>8440763882.9887505</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C106" s="3">
+        <v>760649334098.005</v>
+      </c>
+      <c r="D106" s="3">
+        <v>61.738998413085902</v>
+      </c>
+      <c r="E106" s="3">
+        <v>32839901425.966202</v>
+      </c>
+      <c r="F106" s="3">
+        <v>4749229277.9507504</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C107" s="3">
+        <v>895540646634.78699</v>
+      </c>
+      <c r="D107" s="3">
+        <v>62.445999145507798</v>
+      </c>
+      <c r="E107" s="3">
+        <v>34073822805.147202</v>
+      </c>
+      <c r="F107" s="3">
+        <v>16417567996.3288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1026690238278.25</v>
+      </c>
+      <c r="D108" s="3">
+        <v>62.637001037597699</v>
+      </c>
+      <c r="E108" s="3">
+        <v>44846759262.683701</v>
+      </c>
+      <c r="F108" s="3">
+        <v>43370579702.622002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1173108598778.6799</v>
+      </c>
+      <c r="D109" s="3">
+        <v>62.601001739502003</v>
+      </c>
+      <c r="E109" s="3">
+        <v>45678110612.902298</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1727389338.84794</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1319264809590.97</v>
+      </c>
+      <c r="D110" s="3">
+        <v>62.784000396728501</v>
+      </c>
+      <c r="E110" s="3">
+        <v>35204360382.279503</v>
+      </c>
+      <c r="F110" s="3">
+        <v>-13950022417.347401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1468820407783.26</v>
+      </c>
+      <c r="D111" s="3">
+        <v>63.367000579833999</v>
+      </c>
+      <c r="E111" s="3">
+        <v>30611671625.084499</v>
+      </c>
+      <c r="F111" s="3">
+        <v>-55310207533.908401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1552989690721.6499</v>
+      </c>
+      <c r="D112" s="3">
+        <v>63.411998748779297</v>
+      </c>
+      <c r="E112" s="3">
+        <v>28144247478.809898</v>
+      </c>
+      <c r="F112" s="3">
+        <v>18568974469.1936</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1374625142157.29</v>
+      </c>
+      <c r="D113" s="3">
+        <v>61.494998931884801</v>
+      </c>
+      <c r="E113" s="3">
+        <v>-20294599835.7533</v>
+      </c>
+      <c r="F113" s="3">
+        <v>16787996095.9599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1617343367486.26</v>
+      </c>
+      <c r="D114" s="3">
+        <v>61.516998291015597</v>
+      </c>
+      <c r="E114" s="3">
+        <v>-30874997989.8312</v>
+      </c>
+      <c r="F114" s="3">
+        <v>6626667134.17278</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1793326630174.52</v>
+      </c>
+      <c r="D115" s="3">
+        <v>61.700000762939503</v>
+      </c>
+      <c r="E115" s="3">
+        <v>-21682664821.681198</v>
+      </c>
+      <c r="F115" s="3">
+        <v>11756393310.4902</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1828366481521.6001</v>
+      </c>
+      <c r="D116" s="3">
+        <v>61.652000427246101</v>
+      </c>
+      <c r="E116" s="3">
+        <v>-34518334882.5214</v>
+      </c>
+      <c r="F116" s="3">
+        <v>12879466785.8116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1846597421834.98</v>
+      </c>
+      <c r="D117" s="3">
+        <v>61.761001586914098</v>
+      </c>
+      <c r="E117" s="3">
+        <v>-28982082930.264198</v>
+      </c>
+      <c r="F117" s="3">
+        <v>-12563236012.7314</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1805749878439.9399</v>
+      </c>
+      <c r="D118" s="3">
+        <v>61.430000305175803</v>
+      </c>
+      <c r="E118" s="3">
+        <v>-16320998998.6071</v>
+      </c>
+      <c r="F118" s="3">
+        <v>805191688.44975305</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C119" s="3">
+        <v>1556508816217.1399</v>
+      </c>
+      <c r="D119" s="3">
+        <v>61.290000915527301</v>
+      </c>
+      <c r="E119" s="3">
+        <v>-38583775871.448997</v>
+      </c>
+      <c r="F119" s="3">
+        <v>23927632715.337299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1527994741907.4299</v>
+      </c>
+      <c r="D120" s="3">
+        <v>61.110000610351598</v>
+      </c>
+      <c r="E120" s="3">
+        <v>-36241676908.605499</v>
+      </c>
+      <c r="F120" s="3">
+        <v>33404095512.752701</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1649265644244.0901</v>
+      </c>
+      <c r="D121" s="3">
+        <v>61.590999603271499</v>
+      </c>
+      <c r="E121" s="3">
+        <v>-36237673595.170502</v>
+      </c>
+      <c r="F121" s="3">
+        <v>52829985894.713097</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1725329192783.02</v>
+      </c>
+      <c r="D122" s="3">
+        <v>61.597000122070298</v>
+      </c>
+      <c r="E122" s="3">
+        <v>-33732774271.512199</v>
+      </c>
+      <c r="F122" s="3">
+        <v>20156533320.492298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1742015045482.3101</v>
+      </c>
+      <c r="D123" s="3">
+        <v>61.991001129150398</v>
+      </c>
+      <c r="E123" s="3">
+        <v>-27406577958.797298</v>
+      </c>
+      <c r="F123" s="3">
+        <v>29257678021.888699</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1645423407568.3601</v>
+      </c>
+      <c r="D124" s="3">
+        <v>57.964000701904297</v>
+      </c>
+      <c r="E124" s="3">
+        <v>-33738189143.7113</v>
+      </c>
+      <c r="F124" s="3">
+        <v>23608980223.127102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1988336331717.4199</v>
+      </c>
+      <c r="D125" s="3">
+        <v>60.316001892089801</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1889453397.8662</v>
+      </c>
+      <c r="F125" s="3">
+        <v>38064712377.2285</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1960</v>
+      </c>
+      <c r="C126" s="3">
+        <v>13040000000</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C127" s="3">
+        <v>14160000000</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1962</v>
+      </c>
+      <c r="C128" s="3">
+        <v>15200000000</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1963</v>
+      </c>
+      <c r="C129" s="3">
+        <v>16960000000</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1964</v>
+      </c>
+      <c r="C130" s="3">
+        <v>20080000000</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C131" s="3">
+        <v>21840000000</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1966</v>
+      </c>
+      <c r="C132" s="3">
+        <v>24320000000</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1967</v>
+      </c>
+      <c r="C133" s="3">
+        <v>26560000000</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1968</v>
+      </c>
+      <c r="C134" s="3">
+        <v>29360000000</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1969</v>
+      </c>
+      <c r="C135" s="3">
+        <v>32480000000</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1970</v>
+      </c>
+      <c r="C136" s="3">
+        <v>35520000000</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1971</v>
+      </c>
+      <c r="C137" s="3">
+        <v>39200000000</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1972</v>
+      </c>
+      <c r="C138" s="3">
+        <v>45200000000</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1973</v>
+      </c>
+      <c r="C139" s="3">
+        <v>55280000000</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1974</v>
+      </c>
+      <c r="C140" s="3">
+        <v>72000000000</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C141" s="3">
+        <v>88000000000</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C142" s="3">
+        <v>89025974025.973999</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C143" s="3">
+        <v>81814159292.0354</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C144" s="3">
+        <v>102500000000</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C145" s="3">
+        <v>134561403508.772</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3">
+        <v>-1851000000</v>
+      </c>
+      <c r="F145" s="3">
+        <v>-1332000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C146" s="3">
+        <v>205139086956.522</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3">
+        <v>-4979000000</v>
+      </c>
+      <c r="F146" s="3">
+        <v>-2090000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C147" s="3">
+        <v>263959336734.694</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3">
+        <v>-7383000000</v>
+      </c>
+      <c r="F147" s="3">
+        <v>-3078000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C148" s="3">
+        <v>184609157801.418</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3">
+        <v>5117000000</v>
+      </c>
+      <c r="F148" s="3">
+        <v>-1901000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C149" s="3">
+        <v>156159198584.513</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3">
+        <v>13715000000</v>
+      </c>
+      <c r="F149" s="3">
+        <v>-2192000000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C150" s="3">
+        <v>184261495828.367</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3">
+        <v>12790000000</v>
+      </c>
+      <c r="F150" s="3">
+        <v>-1542000000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C151" s="3">
+        <v>195219789801.479</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3">
+        <v>7683000000</v>
+      </c>
+      <c r="F151" s="3">
+        <v>-1984000000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C152" s="3">
+        <v>134550096436.744</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3">
+        <v>4416000000</v>
+      </c>
+      <c r="F152" s="3">
+        <v>-2400000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C153" s="3">
+        <v>147540738281.81699</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3">
+        <v>8913000000</v>
+      </c>
+      <c r="F153" s="3">
+        <v>-2634000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C154" s="3">
+        <v>181611549975.80399</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3">
+        <v>2414000000</v>
+      </c>
+      <c r="F154" s="3">
+        <v>-2879000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C155" s="3">
+        <v>221400669713.58899</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3">
+        <v>-267000000</v>
+      </c>
+      <c r="F155" s="3">
+        <v>-3174000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C156" s="3">
+        <v>261253582805.94501</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3">
+        <v>-3110000000</v>
+      </c>
+      <c r="F156" s="3">
+        <v>-2634000000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C157" s="3">
+        <v>313142768453.48499</v>
+      </c>
+      <c r="D157" s="3">
+        <v>56.034000396728501</v>
+      </c>
+      <c r="E157" s="3">
+        <v>-9369000000</v>
+      </c>
+      <c r="F157" s="3">
+        <v>-4762000000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C158" s="3">
+        <v>363157598242.27002</v>
+      </c>
+      <c r="D158" s="3">
+        <v>56.7369995117188</v>
+      </c>
+      <c r="E158" s="3">
+        <v>-18618000000</v>
+      </c>
+      <c r="F158" s="3">
+        <v>-4393000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C159" s="3">
+        <v>500736065605.341</v>
+      </c>
+      <c r="D159" s="3">
+        <v>57.410999298095703</v>
+      </c>
+      <c r="E159" s="3">
+        <v>-16010000000</v>
+      </c>
+      <c r="F159" s="3">
+        <v>-4389000000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C160" s="3">
+        <v>527813238126.27802</v>
+      </c>
+      <c r="D160" s="3">
+        <v>56.7439994812012</v>
+      </c>
+      <c r="E160" s="3">
+        <v>-21185140000</v>
+      </c>
+      <c r="F160" s="3">
+        <v>-10972500000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C161" s="3">
+        <v>360073909243.85498</v>
+      </c>
+      <c r="D161" s="3">
+        <v>55.134998321533203</v>
+      </c>
+      <c r="E161" s="3">
+        <v>7152710000</v>
+      </c>
+      <c r="F161" s="3">
+        <v>-9526290000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C162" s="3">
+        <v>410975595310.15601</v>
+      </c>
+      <c r="D162" s="3">
+        <v>55.966999053955099</v>
+      </c>
+      <c r="E162" s="3">
+        <v>6435885000</v>
+      </c>
+      <c r="F162" s="3">
+        <v>-9185600000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C163" s="3">
+        <v>500413483109.17499</v>
+      </c>
+      <c r="D163" s="3">
+        <v>57.8489990234375</v>
+      </c>
+      <c r="E163" s="3">
+        <v>-807195999.99999595</v>
+      </c>
+      <c r="F163" s="3">
+        <v>-12829800000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C164" s="3">
+        <v>526502129378.284</v>
+      </c>
+      <c r="D164" s="3">
+        <v>58.123001098632798</v>
+      </c>
+      <c r="E164" s="3">
+        <v>-9180703000</v>
+      </c>
+      <c r="F164" s="3">
+        <v>-12756764558</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C165" s="3">
+        <v>600232874042.927</v>
+      </c>
+      <c r="D165" s="3">
+        <v>57.963001251220703</v>
+      </c>
+      <c r="E165" s="3">
+        <v>-8350321000</v>
+      </c>
+      <c r="F165" s="3">
+        <v>-13941043232</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C166" s="3">
+        <v>707906744574.64404</v>
+      </c>
+      <c r="D166" s="3">
+        <v>57.6510009765625</v>
+      </c>
+      <c r="E166" s="3">
+        <v>-11941767041</v>
+      </c>
+      <c r="F166" s="3">
+        <v>-18382284821</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C167" s="3">
+        <v>756706300589.79102</v>
+      </c>
+      <c r="D167" s="3">
+        <v>56.794998168945298</v>
+      </c>
+      <c r="E167" s="3">
+        <v>-14109446485</v>
+      </c>
+      <c r="F167" s="3">
+        <v>-25656063323</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C168" s="3">
+        <v>772106378935.37695</v>
+      </c>
+      <c r="D168" s="3">
+        <v>56.201999664306598</v>
+      </c>
+      <c r="E168" s="3">
+        <v>-13449465740</v>
+      </c>
+      <c r="F168" s="3">
+        <v>-23196598424</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C169" s="3">
+        <v>729336319677.44897</v>
+      </c>
+      <c r="D169" s="3">
+        <v>56.263999938964801</v>
+      </c>
+      <c r="E169" s="3">
+        <v>-12334467286</v>
+      </c>
+      <c r="F169" s="3">
+        <v>-17002061759</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C170" s="3">
+        <v>782240601984.76001</v>
+      </c>
+      <c r="D170" s="3">
+        <v>56.530998229980497</v>
+      </c>
+      <c r="E170" s="3">
+        <v>-16095984585</v>
+      </c>
+      <c r="F170" s="3">
+        <v>-20582152452</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C171" s="3">
+        <v>877476221382.10095</v>
+      </c>
+      <c r="D171" s="3">
+        <v>57.2179985046387</v>
+      </c>
+      <c r="E171" s="3">
+        <v>-14632699530</v>
+      </c>
+      <c r="F171" s="3">
+        <v>-19339310184</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C172" s="3">
+        <v>975387131716.08899</v>
+      </c>
+      <c r="D172" s="3">
+        <v>57.983001708984403</v>
+      </c>
+      <c r="E172" s="3">
+        <v>-14053155432</v>
+      </c>
+      <c r="F172" s="3">
+        <v>-15460730271</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1052696282278.87</v>
+      </c>
+      <c r="D173" s="3">
+        <v>57.917999267578097</v>
+      </c>
+      <c r="E173" s="3">
+        <v>-18298779928</v>
+      </c>
+      <c r="F173" s="3">
+        <v>-22687338973</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1109989063586.6201</v>
+      </c>
+      <c r="D174" s="3">
+        <v>57.619998931884801</v>
+      </c>
+      <c r="E174" s="3">
+        <v>-26176192302</v>
+      </c>
+      <c r="F174" s="3">
+        <v>-29072929919</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C175" s="3">
+        <v>900045350649.35095</v>
+      </c>
+      <c r="D175" s="3">
+        <v>56.680000305175803</v>
+      </c>
+      <c r="E175" s="3">
+        <v>-14948498804</v>
+      </c>
+      <c r="F175" s="3">
+        <v>-7993126393</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1057801295584.05</v>
+      </c>
+      <c r="D176" s="3">
+        <v>56.498001098632798</v>
+      </c>
+      <c r="E176" s="3">
+        <v>-14362586968</v>
+      </c>
+      <c r="F176" s="3">
+        <v>-12633332548</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1180489601957.6101</v>
+      </c>
+      <c r="D177" s="3">
+        <v>56.669998168945298</v>
+      </c>
+      <c r="E177" s="3">
+        <v>-16792550954</v>
+      </c>
+      <c r="F177" s="3">
+        <v>-12271829963</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1201089987015.45</v>
+      </c>
+      <c r="D178" s="3">
+        <v>57.456001281738303</v>
+      </c>
+      <c r="E178" s="3">
+        <v>-14611921035</v>
+      </c>
+      <c r="F178" s="3">
+        <v>553441096</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1274443084716.5701</v>
+      </c>
+      <c r="D179" s="3">
+        <v>57.319999694824197</v>
+      </c>
+      <c r="E179" s="3">
+        <v>-14967436808</v>
+      </c>
+      <c r="F179" s="3">
+        <v>-32798776484</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1315351183524.54</v>
+      </c>
+      <c r="D180" s="3">
+        <v>56.886001586914098</v>
+      </c>
+      <c r="E180" s="3">
+        <v>-16087915097</v>
+      </c>
+      <c r="F180" s="3">
+        <v>-22844548371</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1171867608197.72</v>
+      </c>
+      <c r="D181" s="3">
+        <v>57.222999572753899</v>
+      </c>
+      <c r="E181" s="3">
+        <v>-24388099532</v>
+      </c>
+      <c r="F181" s="3">
+        <v>-25290242282</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1078490651625.3101</v>
+      </c>
+      <c r="D182" s="3">
+        <v>57.375999450683601</v>
+      </c>
+      <c r="E182" s="3">
+        <v>-21903488097</v>
+      </c>
+      <c r="F182" s="3">
+        <v>-31036876221</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1158913035796.3701</v>
+      </c>
+      <c r="D183" s="3">
+        <v>57.311000823974602</v>
+      </c>
+      <c r="E183" s="3">
+        <v>-20460285386</v>
+      </c>
+      <c r="F183" s="3">
+        <v>-30044241784</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1222408203104.3</v>
+      </c>
+      <c r="D184" s="3">
+        <v>57.597000122070298</v>
+      </c>
+      <c r="E184" s="3">
+        <v>-24706633159</v>
+      </c>
+      <c r="F184" s="3">
+        <v>-25719677230</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1269011767478.5601</v>
+      </c>
+      <c r="D185" s="3">
+        <v>58.008998870849602</v>
+      </c>
+      <c r="E185" s="3">
+        <v>-2734635362</v>
+      </c>
+      <c r="F185" s="3">
+        <v>-23734376185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1090515389749.41</v>
+      </c>
+      <c r="D186" s="3">
+        <v>53.040000915527301</v>
+      </c>
+      <c r="E186" s="3">
+        <v>22907677376</v>
+      </c>
+      <c r="F186" s="3">
+        <v>-25832033902</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1272839334119.3</v>
+      </c>
+      <c r="D187" s="3">
+        <v>56.446998596191399</v>
+      </c>
+      <c r="E187" s="3">
+        <v>-22516226831</v>
+      </c>
+      <c r="F187" s="3">
+        <v>-33042914453</v>
       </c>
     </row>
   </sheetData>
